--- a/EXCEL REPORT/EXHIBITION.xlsx
+++ b/EXCEL REPORT/EXHIBITION.xlsx
@@ -614,7 +614,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -623,7 +623,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,7 +968,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -988,81 +987,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="30">
+    <row r="12" spans="1:11" s="7" customFormat="1" ht="30">
       <c r="A12" s="1">
         <v>1</v>
       </c>
